--- a/data/trans_orig/CAGE_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CAGE_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4606</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>921</v>
+        <v>1743</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11470</v>
+        <v>12673</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00663677543586406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001326516252749683</v>
+        <v>0.002511166558170026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01652772672831855</v>
+        <v>0.01825982982930174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -778,19 +778,19 @@
         <v>4606</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1729</v>
+        <v>1062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12585</v>
+        <v>12726</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003331977283329997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00125073809836479</v>
+        <v>0.0007680284894372016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009104219701465769</v>
+        <v>0.009206282989399031</v>
       </c>
     </row>
     <row r="5">
@@ -807,19 +807,19 @@
         <v>689406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682542</v>
+        <v>681339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>693091</v>
+        <v>692269</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9933632245641359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9834722732716805</v>
+        <v>0.981740170170698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9986734837472503</v>
+        <v>0.9974888334418299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>696</v>
@@ -841,19 +841,19 @@
         <v>1377757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1369778</v>
+        <v>1369637</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1380634</v>
+        <v>1381301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.99666802271667</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9908957802985342</v>
+        <v>0.990793717010601</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9987492619016353</v>
+        <v>0.9992319715105628</v>
       </c>
     </row>
     <row r="6">
@@ -945,19 +945,19 @@
         <v>7029</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2955</v>
+        <v>2965</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14260</v>
+        <v>13744</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007308224254918161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003071912486250875</v>
+        <v>0.003082475078125571</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01482681082349444</v>
+        <v>0.01428954167068151</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5169</v>
+        <v>5177</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001063927212200765</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.00533786424749617</v>
+        <v>0.005345577447369731</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -987,19 +987,19 @@
         <v>8059</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3149</v>
+        <v>3958</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14953</v>
+        <v>15216</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00417541126134971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001631383980554335</v>
+        <v>0.002050558993077236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.00774685436977392</v>
+        <v>0.007883312190986294</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>954771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>947540</v>
+        <v>948056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>958845</v>
+        <v>958835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9926917757450818</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9851731891765055</v>
+        <v>0.9857104583293186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9969280875137492</v>
+        <v>0.9969175249218745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>907</v>
@@ -1037,7 +1037,7 @@
         <v>967363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963224</v>
+        <v>963216</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>968393</v>
@@ -1046,7 +1046,7 @@
         <v>0.9989360727877993</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9946621357525038</v>
+        <v>0.9946544225526303</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>1922134</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1915240</v>
+        <v>1914977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1927044</v>
+        <v>1926235</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9958245887386503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.992253145630226</v>
+        <v>0.9921166878090134</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983686160194457</v>
+        <v>0.9979494410069227</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>6648</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13135</v>
+        <v>13058</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009798049688242539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004209797046869588</v>
+        <v>0.004211847608730312</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01935848931270175</v>
+        <v>0.01924561276973522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1196,19 +1196,19 @@
         <v>6648</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2749</v>
+        <v>2735</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12662</v>
+        <v>13371</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004879850479889811</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002017903238220207</v>
+        <v>0.002007840164079211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0092941718346302</v>
+        <v>0.00981434146010738</v>
       </c>
     </row>
     <row r="11">
@@ -1225,19 +1225,19 @@
         <v>671861</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>665374</v>
+        <v>665451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>675653</v>
+        <v>675651</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9902019503117575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9806415106872977</v>
+        <v>0.9807543872302648</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9957902029531304</v>
+        <v>0.9957881523912697</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>696</v>
@@ -1259,19 +1259,19 @@
         <v>1355702</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1349688</v>
+        <v>1348979</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1359601</v>
+        <v>1359615</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9951201495201102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9907058281653698</v>
+        <v>0.9901856585398926</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979820967617797</v>
+        <v>0.9979921598359208</v>
       </c>
     </row>
     <row r="12">
@@ -1363,19 +1363,19 @@
         <v>7356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3254</v>
+        <v>2917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14222</v>
+        <v>15834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007806651142754517</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003453592697017442</v>
+        <v>0.003095967831407376</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01509444648138206</v>
+        <v>0.01680517605113645</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1384,19 +1384,19 @@
         <v>8258</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3492</v>
+        <v>3211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17476</v>
+        <v>17383</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007951371332640962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003362656889158548</v>
+        <v>0.003091265428925483</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01682594638758005</v>
+        <v>0.01673637526304956</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -1405,19 +1405,19 @@
         <v>15614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9155</v>
+        <v>9006</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26693</v>
+        <v>25042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007882532371946468</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004621744658055092</v>
+        <v>0.004546528832443527</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01347551828126608</v>
+        <v>0.01264205581825861</v>
       </c>
     </row>
     <row r="14">
@@ -1434,19 +1434,19 @@
         <v>934866</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928000</v>
+        <v>926388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>938968</v>
+        <v>939305</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9921933488572455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9849055535186179</v>
+        <v>0.9831948239488636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965464073029826</v>
+        <v>0.9969040321685922</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>990</v>
@@ -1455,19 +1455,19 @@
         <v>1030354</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1021136</v>
+        <v>1021229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1035120</v>
+        <v>1035401</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.992048628667359</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9831740536124196</v>
+        <v>0.9832636247369505</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9966373431108414</v>
+        <v>0.9969087345710744</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1977</v>
@@ -1476,19 +1476,19 @@
         <v>1965220</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1954141</v>
+        <v>1955792</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1971679</v>
+        <v>1971828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9921174676280535</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9865244817187341</v>
+        <v>0.9873579441817415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9953782553419449</v>
+        <v>0.9954534711675566</v>
       </c>
     </row>
     <row r="15">
@@ -1580,19 +1580,19 @@
         <v>25639</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17048</v>
+        <v>17199</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37380</v>
+        <v>38128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007824928598742811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005202995085618597</v>
+        <v>0.005249252012981832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01140851388089124</v>
+        <v>0.01163662743468987</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -1601,19 +1601,19 @@
         <v>9289</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4237</v>
+        <v>4364</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17685</v>
+        <v>18151</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002748785841692997</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001253897057115723</v>
+        <v>0.001291286998514182</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005233451838633942</v>
+        <v>0.005371314625151636</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -1622,19 +1622,19 @@
         <v>34927</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24790</v>
+        <v>24826</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>48921</v>
+        <v>47462</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005247711592209641</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003724589368747743</v>
+        <v>0.003730046232927104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.00735024235989293</v>
+        <v>0.007130935617490323</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>3250904</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3289</v>
@@ -1672,19 +1672,19 @@
         <v>3369908</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6478</v>
@@ -1693,19 +1693,19 @@
         <v>6620814</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="18">
@@ -2037,19 +2037,19 @@
         <v>8681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4380</v>
+        <v>4264</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15983</v>
+        <v>15524</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01234075560008516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00622593704958599</v>
+        <v>0.006060894402303552</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02272028132267978</v>
+        <v>0.02206790413408108</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4474</v>
+        <v>5789</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001451753995639224</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00641875183936733</v>
+        <v>0.00830473308245756</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2079,19 +2079,19 @@
         <v>9693</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5036</v>
+        <v>4969</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16628</v>
+        <v>17120</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006921208504028045</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003595797011577169</v>
+        <v>0.003548110855157033</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01187302185411846</v>
+        <v>0.01222376657922833</v>
       </c>
     </row>
     <row r="5">
@@ -2108,19 +2108,19 @@
         <v>694788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>687486</v>
+        <v>687945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>699089</v>
+        <v>699205</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9876592443999148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9772797186773197</v>
+        <v>0.977932095865919</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.993774062950414</v>
+        <v>0.9939391055976966</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>649</v>
@@ -2129,7 +2129,7 @@
         <v>696038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>692576</v>
+        <v>691261</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>697050</v>
@@ -2138,7 +2138,7 @@
         <v>0.9985482460043608</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9935812481606341</v>
+        <v>0.991695266917542</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2150,19 +2150,19 @@
         <v>1390826</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1383891</v>
+        <v>1383399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1395483</v>
+        <v>1395550</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.993078791495972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9881269781458816</v>
+        <v>0.9877762334207715</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9964042029884228</v>
+        <v>0.9964518891448428</v>
       </c>
     </row>
     <row r="6">
@@ -2254,19 +2254,19 @@
         <v>13947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6992</v>
+        <v>7326</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25217</v>
+        <v>25722</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01370120390436684</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006868845381693502</v>
+        <v>0.007196808166540119</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02477203324735196</v>
+        <v>0.02526897011905409</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4934</v>
+        <v>5881</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0009551307748948516</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.004780263140582251</v>
+        <v>0.005697985400697113</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -2296,19 +2296,19 @@
         <v>14933</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7520</v>
+        <v>7745</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27880</v>
+        <v>27573</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007283910592835141</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.00366828624082256</v>
+        <v>0.003778025725621137</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01359893385194552</v>
+        <v>0.01344938900745745</v>
       </c>
     </row>
     <row r="8">
@@ -2325,19 +2325,19 @@
         <v>1004000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992730</v>
+        <v>992225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1010955</v>
+        <v>1010621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9862987960956332</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.975227966752648</v>
+        <v>0.974731029880946</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9931311546183066</v>
+        <v>0.9928031918334598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>939</v>
@@ -2346,7 +2346,7 @@
         <v>1031198</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1027250</v>
+        <v>1026303</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>1032184</v>
@@ -2355,7 +2355,7 @@
         <v>0.9990448692251052</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9952197368594178</v>
+        <v>0.9943020145993031</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2367,19 +2367,19 @@
         <v>2035198</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2022251</v>
+        <v>2022558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2042611</v>
+        <v>2042386</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9927160894071648</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9864010661480545</v>
+        <v>0.9865506109925425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963317137591774</v>
+        <v>0.9962219742743788</v>
       </c>
     </row>
     <row r="9">
@@ -2471,19 +2471,19 @@
         <v>18262</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11064</v>
+        <v>10719</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29028</v>
+        <v>29481</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02410480593674535</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01460377453605298</v>
+        <v>0.01414807347586773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0383143109850568</v>
+        <v>0.0389129030488631</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4991</v>
+        <v>5382</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.001281611842033345</v>
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006421552538446706</v>
+        <v>0.006924613355409113</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -2513,19 +2513,19 @@
         <v>19258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11728</v>
+        <v>11263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30525</v>
+        <v>31289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01254784466727999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007641533381826436</v>
+        <v>0.007338185030462114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01988881434185613</v>
+        <v>0.02038661090257958</v>
       </c>
     </row>
     <row r="11">
@@ -2542,19 +2542,19 @@
         <v>739361</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>728595</v>
+        <v>728142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>746559</v>
+        <v>746904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9758951940632546</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9616856890149432</v>
+        <v>0.9610870969511359</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9853962254639471</v>
+        <v>0.9858519265241322</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>704</v>
@@ -2563,7 +2563,7 @@
         <v>776178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>772183</v>
+        <v>771792</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>777174</v>
@@ -2572,7 +2572,7 @@
         <v>0.9987183881579667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9935784474615533</v>
+        <v>0.9930753866445909</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2584,19 +2584,19 @@
         <v>1515539</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1504272</v>
+        <v>1503508</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1523069</v>
+        <v>1523534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.98745215533272</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9801111856581439</v>
+        <v>0.9796133890974204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9923584666181736</v>
+        <v>0.992661814969538</v>
       </c>
     </row>
     <row r="12">
@@ -2688,19 +2688,19 @@
         <v>24935</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16083</v>
+        <v>15968</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37567</v>
+        <v>37258</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02630992589617227</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01697022181154673</v>
+        <v>0.01684888374927479</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03963858724118523</v>
+        <v>0.03931285572861154</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7336</v>
+        <v>6428</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002025210133978339</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006973834916634032</v>
+        <v>0.006110708216000403</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -2730,19 +2730,19 @@
         <v>27065</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17195</v>
+        <v>17823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40312</v>
+        <v>40873</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01353507035295354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008598856996159171</v>
+        <v>0.008913284614810685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0201593991046657</v>
+        <v>0.02044008927896711</v>
       </c>
     </row>
     <row r="14">
@@ -2759,19 +2759,19 @@
         <v>922804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910172</v>
+        <v>910481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931656</v>
+        <v>931771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9736900741038277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9603614127588158</v>
+        <v>0.9606871442713886</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9830297781884534</v>
+        <v>0.9831511162507252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1001</v>
@@ -2780,7 +2780,7 @@
         <v>1049771</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1044565</v>
+        <v>1045473</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>1051901</v>
@@ -2789,7 +2789,7 @@
         <v>0.9979747898660216</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9930261650833663</v>
+        <v>0.9938892917839997</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -2801,19 +2801,19 @@
         <v>1972575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1959328</v>
+        <v>1958767</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1982445</v>
+        <v>1981817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9864649296470465</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9798406008953343</v>
+        <v>0.9795599107210329</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914011430038409</v>
+        <v>0.9910867153851893</v>
       </c>
     </row>
     <row r="15">
@@ -2905,19 +2905,19 @@
         <v>65826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>49996</v>
+        <v>50498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85140</v>
+        <v>84929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01920922225190768</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01458988868132487</v>
+        <v>0.01473616618785992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02484559453478931</v>
+        <v>0.02478404426168417</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -2926,19 +2926,19 @@
         <v>5124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12342</v>
+        <v>11262</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001440058127778784</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0005601107140409108</v>
+        <v>0.0005611104118137482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.003468477009389347</v>
+        <v>0.003165040112038954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -2947,19 +2947,19 @@
         <v>70950</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>54902</v>
+        <v>53497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>93528</v>
+        <v>90857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01015734220939642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007859928362435972</v>
+        <v>0.007658755628866626</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01338966741313569</v>
+        <v>0.01300722602667501</v>
       </c>
     </row>
     <row r="17">
@@ -2976,19 +2976,19 @@
         <v>3360953</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3293</v>
@@ -2997,19 +2997,19 @@
         <v>3553185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6441</v>
@@ -3018,19 +3018,19 @@
         <v>6914138</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="18">
@@ -3362,19 +3362,19 @@
         <v>6607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2248</v>
+        <v>2139</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13586</v>
+        <v>13430</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009790493817436853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003331006215185152</v>
+        <v>0.00316943069529257</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02013283753353255</v>
+        <v>0.01990268977700963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6673</v>
+        <v>6011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002871637977718915</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.009917619829063015</v>
+        <v>0.008934123002544377</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -3404,19 +3404,19 @@
         <v>8539</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4065</v>
+        <v>4088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15991</v>
+        <v>16846</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006336099845764883</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003016176116908246</v>
+        <v>0.003033221952443457</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01186565455829448</v>
+        <v>0.01250014599903696</v>
       </c>
     </row>
     <row r="5">
@@ -3433,19 +3433,19 @@
         <v>668193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661214</v>
+        <v>661370</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>672552</v>
+        <v>672661</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9902095061825631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9798671624664675</v>
+        <v>0.9800973102229904</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9966689937848148</v>
+        <v>0.9968305693047075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -3454,7 +3454,7 @@
         <v>670907</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>666166</v>
+        <v>666828</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>672839</v>
@@ -3463,7 +3463,7 @@
         <v>0.9971283620222811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9900823801709363</v>
+        <v>0.9910658769974554</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3475,19 +3475,19 @@
         <v>1339100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1331648</v>
+        <v>1330793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1343574</v>
+        <v>1343551</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9936639001542351</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9881343454417056</v>
+        <v>0.9874998540009633</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9969838238830917</v>
+        <v>0.9969667780475566</v>
       </c>
     </row>
     <row r="6">
@@ -3579,19 +3579,19 @@
         <v>22604</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13718</v>
+        <v>13943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36759</v>
+        <v>36038</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02210791758816353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01341746350962271</v>
+        <v>0.01363721192034258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03595247324625359</v>
+        <v>0.03524737486123775</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -3600,19 +3600,19 @@
         <v>2978</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8085</v>
+        <v>8194</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002855152659479502</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0008899334692145962</v>
+        <v>0.0008913369367198112</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007752543953138459</v>
+        <v>0.007856375109103964</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -3621,19 +3621,19 @@
         <v>25581</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15618</v>
+        <v>16132</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37497</v>
+        <v>37876</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01238607031786046</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007561980320769619</v>
+        <v>0.00781057567674691</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01815529867885364</v>
+        <v>0.01833879644419958</v>
       </c>
     </row>
     <row r="8">
@@ -3650,19 +3650,19 @@
         <v>999827</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>985672</v>
+        <v>986393</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1008713</v>
+        <v>1008488</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9778920824118364</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9640475267537463</v>
+        <v>0.9647526251387629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865825364903772</v>
+        <v>0.9863627880796575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>974</v>
@@ -3671,19 +3671,19 @@
         <v>1039935</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1034828</v>
+        <v>1034719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1041985</v>
+        <v>1041983</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9971448473405204</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9922474560468616</v>
+        <v>0.9921436248908959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9991100665307854</v>
+        <v>0.9991086630632803</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1906</v>
@@ -3692,19 +3692,19 @@
         <v>2039763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2027847</v>
+        <v>2027468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2049726</v>
+        <v>2049212</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9876139296821396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9818447013211464</v>
+        <v>0.9816612035558004</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9924380196792304</v>
+        <v>0.9921894243232532</v>
       </c>
     </row>
     <row r="9">
@@ -3796,19 +3796,19 @@
         <v>7478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3117</v>
+        <v>3232</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14922</v>
+        <v>14353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009845168271139971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004103531754326988</v>
+        <v>0.004255486505375081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01964558205309339</v>
+        <v>0.01889721488299988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>7478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3146</v>
+        <v>3212</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15689</v>
+        <v>14719</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004841446464000738</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002036799296306095</v>
+        <v>0.002079606595042443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0101576502886422</v>
+        <v>0.009529803995140104</v>
       </c>
     </row>
     <row r="11">
@@ -3859,19 +3859,19 @@
         <v>752074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>744630</v>
+        <v>745199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756435</v>
+        <v>756320</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.99015483172886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9803544179469066</v>
+        <v>0.981102785117</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995896468245673</v>
+        <v>0.9957445134946249</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>736</v>
@@ -3893,19 +3893,19 @@
         <v>1537085</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1528874</v>
+        <v>1529844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1541417</v>
+        <v>1541351</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9951585535359992</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9898423497113595</v>
+        <v>0.9904701960048597</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9979632007036939</v>
+        <v>0.9979203934049574</v>
       </c>
     </row>
     <row r="12">
@@ -3997,19 +3997,19 @@
         <v>12092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6460</v>
+        <v>6825</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20370</v>
+        <v>20921</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0128969775146939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006890219992131103</v>
+        <v>0.007279308026335422</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02172605859159709</v>
+        <v>0.02231375440726829</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -4018,19 +4018,19 @@
         <v>11978</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6312</v>
+        <v>6669</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20638</v>
+        <v>20442</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01147578346374925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006047206614809248</v>
+        <v>0.006389757221750527</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01977227325825348</v>
+        <v>0.01958459498035357</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -4039,19 +4039,19 @@
         <v>24070</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16555</v>
+        <v>14762</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36804</v>
+        <v>35167</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01214828823252044</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00835535456121134</v>
+        <v>0.007450519033173274</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01857527387392953</v>
+        <v>0.01774891197646393</v>
       </c>
     </row>
     <row r="14">
@@ -4068,19 +4068,19 @@
         <v>925475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>917197</v>
+        <v>916646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931107</v>
+        <v>930742</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9871030224853061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.978273941408403</v>
+        <v>0.977686245592732</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9931097800078689</v>
+        <v>0.992720691973665</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>948</v>
@@ -4089,19 +4089,19 @@
         <v>1031801</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1023141</v>
+        <v>1023337</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1037467</v>
+        <v>1037110</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9885242165362508</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9802277267417465</v>
+        <v>0.9804154050196464</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9939527933851907</v>
+        <v>0.9936102427782495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1868</v>
@@ -4110,19 +4110,19 @@
         <v>1957276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1944542</v>
+        <v>1946179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1964791</v>
+        <v>1966584</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9878517117674795</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9814247261260705</v>
+        <v>0.9822510880235361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9916446454387886</v>
+        <v>0.9925494809668267</v>
       </c>
     </row>
     <row r="15">
@@ -4214,19 +4214,19 @@
         <v>48780</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37361</v>
+        <v>35714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65091</v>
+        <v>65515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01437098165460728</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01100668276237278</v>
+        <v>0.01052146857952955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01917639135806484</v>
+        <v>0.01930128611607264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -4235,19 +4235,19 @@
         <v>16888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10365</v>
+        <v>10137</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26822</v>
+        <v>26875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004764510512152104</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002924139433460672</v>
+        <v>0.002859876747790308</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007567139068040416</v>
+        <v>0.007582154417295484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -4256,19 +4256,19 @@
         <v>65668</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50393</v>
+        <v>51636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>84118</v>
+        <v>84103</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009463780512459309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007262377197038893</v>
+        <v>0.007441595248495876</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01212264244503155</v>
+        <v>0.0121205847405442</v>
       </c>
     </row>
     <row r="17">
@@ -4285,19 +4285,19 @@
         <v>3345570</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3322</v>
@@ -4306,19 +4306,19 @@
         <v>3527654</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6509</v>
@@ -4327,19 +4327,19 @@
         <v>6873224</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="18">
@@ -4671,19 +4671,19 @@
         <v>3209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1085</v>
+        <v>1119</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7367</v>
+        <v>7560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009087358777142143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003072158472677336</v>
+        <v>0.003169513269344722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02086006869409968</v>
+        <v>0.02140660950563121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00761339573985411</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4713,19 +4713,19 @@
         <v>4527</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2101</v>
+        <v>1980</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9590</v>
+        <v>9663</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.008602565340555262</v>
+        <v>0.008602565340555261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003992668342192447</v>
+        <v>0.003763335405144629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01822297173801795</v>
+        <v>0.01836283752477652</v>
       </c>
     </row>
     <row r="5">
@@ -4742,19 +4742,19 @@
         <v>349946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345788</v>
+        <v>345595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352070</v>
+        <v>352036</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9909126412228578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9791399313059005</v>
+        <v>0.9785933904943687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9969278415273227</v>
+        <v>0.9968304867306552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>248</v>
@@ -4763,7 +4763,7 @@
         <v>171764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>168461</v>
+        <v>168203</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>173082</v>
@@ -4772,7 +4772,7 @@
         <v>0.9923866042601459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9733033224535927</v>
+        <v>0.9718092521448255</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4784,19 +4784,19 @@
         <v>521710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516647</v>
+        <v>516574</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>524136</v>
+        <v>524257</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9913974346594447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.981777028261982</v>
+        <v>0.9816371624752236</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9960073316578074</v>
+        <v>0.9962366645948554</v>
       </c>
     </row>
     <row r="6">
@@ -4888,19 +4888,19 @@
         <v>9419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4914</v>
+        <v>4639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17110</v>
+        <v>16998</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01881007026734486</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009814364490559746</v>
+        <v>0.009264707304131693</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03417012633440677</v>
+        <v>0.03394702789757938</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4909,19 +4909,19 @@
         <v>5696</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2359</v>
+        <v>2225</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12629</v>
+        <v>12085</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02567777406026594</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01063437236367912</v>
+        <v>0.01003169418497469</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05693416639902252</v>
+        <v>0.05448351019537468</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -4930,19 +4930,19 @@
         <v>15114</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9416</v>
+        <v>8940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24043</v>
+        <v>24272</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02091840431956211</v>
+        <v>0.0209184043195621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01303227194065351</v>
+        <v>0.01237335643425174</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03327597152386976</v>
+        <v>0.0335923753658245</v>
       </c>
     </row>
     <row r="8">
@@ -4959,19 +4959,19 @@
         <v>491304</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>483613</v>
+        <v>483725</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495809</v>
+        <v>496084</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9811899297326553</v>
+        <v>0.9811899297326552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9658298736655931</v>
+        <v>0.9660529721024207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9901856355094403</v>
+        <v>0.9907352926958682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>279</v>
@@ -4980,19 +4980,19 @@
         <v>216117</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209184</v>
+        <v>209728</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>219454</v>
+        <v>219588</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9743222259397341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9430658336009778</v>
+        <v>0.9455164898046252</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9893656276363209</v>
+        <v>0.9899683058150256</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>711</v>
@@ -5001,19 +5001,19 @@
         <v>707423</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>698494</v>
+        <v>698265</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>713121</v>
+        <v>713597</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9790815956804378</v>
+        <v>0.9790815956804377</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9667240284761303</v>
+        <v>0.9664076246341756</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9869677280593466</v>
+        <v>0.9876266435657481</v>
       </c>
     </row>
     <row r="9">
@@ -5105,19 +5105,19 @@
         <v>9607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4232</v>
+        <v>4433</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19114</v>
+        <v>21050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02707058948501867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01192532964152523</v>
+        <v>0.01249029716848659</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05385610181356374</v>
+        <v>0.05931107198601217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -5126,19 +5126,19 @@
         <v>4332</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1337</v>
+        <v>1376</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12216</v>
+        <v>13762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02237878207723835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006908702292771555</v>
+        <v>0.00711044509876313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06310314013932676</v>
+        <v>0.07109162895455144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5147,19 +5147,19 @@
         <v>13940</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6960</v>
+        <v>7409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24550</v>
+        <v>25275</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02541462815431643</v>
+        <v>0.02541462815431644</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01269015152481828</v>
+        <v>0.0135077990765974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0447597138381108</v>
+        <v>0.04608146799542073</v>
       </c>
     </row>
     <row r="11">
@@ -5176,19 +5176,19 @@
         <v>345294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335787</v>
+        <v>333851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>350669</v>
+        <v>350468</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9729294105149813</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9461438981864363</v>
+        <v>0.9406889280139876</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9880746703584745</v>
+        <v>0.9875097028315134</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -5197,19 +5197,19 @@
         <v>189256</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>181372</v>
+        <v>179826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>192251</v>
+        <v>192212</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9776212179227616</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9368968598606734</v>
+        <v>0.9289083710454485</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930912977072285</v>
+        <v>0.9928895549012368</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -5218,19 +5218,19 @@
         <v>534549</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>523939</v>
+        <v>523214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>541529</v>
+        <v>541080</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9745853718456838</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9552402861618904</v>
+        <v>0.9539185320045794</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9873098484751821</v>
+        <v>0.9864922009234024</v>
       </c>
     </row>
     <row r="12">
@@ -5322,19 +5322,19 @@
         <v>18976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11561</v>
+        <v>11141</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28965</v>
+        <v>28952</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04085077228800266</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02488841911419648</v>
+        <v>0.02398314868386928</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06235467583872598</v>
+        <v>0.06232534207609163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5343,19 +5343,19 @@
         <v>5301</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1761</v>
+        <v>1890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13867</v>
+        <v>14873</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01721997229951737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005721444405678217</v>
+        <v>0.006140072627090006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04504699754807457</v>
+        <v>0.04831220187060148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>25</v>
@@ -5364,19 +5364,19 @@
         <v>24277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16764</v>
+        <v>15424</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37608</v>
+        <v>35417</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03143221650608834</v>
+        <v>0.03143221650608833</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02170466477059966</v>
+        <v>0.01997026648847208</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04869238851257761</v>
+        <v>0.0458558153259557</v>
       </c>
     </row>
     <row r="14">
@@ -5393,19 +5393,19 @@
         <v>445547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>435558</v>
+        <v>435571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>452962</v>
+        <v>453382</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9591492277119975</v>
+        <v>0.9591492277119974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9376453241612738</v>
+        <v>0.9376746579239075</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9751115808858035</v>
+        <v>0.9760168513161307</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>411</v>
@@ -5414,19 +5414,19 @@
         <v>302542</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293976</v>
+        <v>292970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306082</v>
+        <v>305953</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9827800277004827</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9549530024519249</v>
+        <v>0.9516877981293992</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9942785555943218</v>
+        <v>0.9938599273729101</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>875</v>
@@ -5435,19 +5435,19 @@
         <v>748089</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>734758</v>
+        <v>736949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>755602</v>
+        <v>756942</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9685677834939117</v>
+        <v>0.9685677834939116</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9513076114874224</v>
+        <v>0.9541441846740443</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9782953352294004</v>
+        <v>0.980029733511528</v>
       </c>
     </row>
     <row r="15">
@@ -5539,19 +5539,19 @@
         <v>41211</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29127</v>
+        <v>29549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>55869</v>
+        <v>56021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02462877741263587</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01740687539016688</v>
+        <v>0.01765908853092992</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03338830762963848</v>
+        <v>0.03347910747208128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5560,19 +5560,19 @@
         <v>16647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9577</v>
+        <v>9562</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28066</v>
+        <v>26675</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01857217496712687</v>
+        <v>0.01857217496712686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0106850183987965</v>
+        <v>0.01066764722450474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03131233246720073</v>
+        <v>0.02976064351388362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>62</v>
@@ -5581,19 +5581,19 @@
         <v>57858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44530</v>
+        <v>43515</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75575</v>
+        <v>75404</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02251614174435218</v>
+        <v>0.02251614174435219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01732933819817283</v>
+        <v>0.01693423173424262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02941075561889078</v>
+        <v>0.02934439611852979</v>
       </c>
     </row>
     <row r="17">
@@ -5610,19 +5610,19 @@
         <v>1632092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1174</v>
@@ -5631,19 +5631,19 @@
         <v>879679</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2712</v>
@@ -5652,19 +5652,19 @@
         <v>2511770</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="18">
